--- a/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-9-10.xlsx
+++ b/output/experiments/Aug2023_3/LOG-MPC-MSC-6h-bat-9-10.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\Aug2023_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7991F494-A304-42A3-BA73-BB21F7A5C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="122">
   <si>
     <t>status</t>
   </si>
@@ -166,9 +160,24 @@
     <t>bat_e_terminal_revenue</t>
   </si>
   <si>
+    <t>load_bld_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_bld_error_max_pos</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_neg</t>
+  </si>
+  <si>
+    <t>load_pv_error_max_pos</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -220,29 +229,164 @@
     <t>10-07</t>
   </si>
   <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>10-21</t>
+  </si>
+  <si>
+    <t>10-28</t>
+  </si>
+  <si>
+    <t>11-04</t>
+  </si>
+  <si>
     <t>flex</t>
   </si>
   <si>
     <t>unif</t>
   </si>
   <si>
-    <t>10-14</t>
-  </si>
-  <si>
-    <t>10-21</t>
-  </si>
-  <si>
-    <t>10-28</t>
-  </si>
-  <si>
-    <t>11-04</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-07-10-14-Sum-ALL-Sum-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-07-10-14-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-07-10-14-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-07-10-14-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-07-10-14-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-14-10-21-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-14-10-21-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-14-10-21-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-14-10-21-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-14-10-21-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-21-10-28-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-21-10-28-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-21-10-28-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-21-10-28-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-21-10-28-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-28-11-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-28-11-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-28-11-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-10-28-11-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-10-28-11-04-Sum-ALL-Sum-2023-08-24_001.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,23 +445,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -359,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,27 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,24 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,18 +736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -793,49 +891,61 @@
       <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:53">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N2">
-        <v>35.685759203202799</v>
+        <v>35.6857592032028</v>
       </c>
       <c r="O2">
         <v>1.5</v>
@@ -847,51 +957,150 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S2">
+        <v>190.0494758280072</v>
+      </c>
+      <c r="T2">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U2">
+        <v>372.8937421</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2">
+        <v>190.0494758280072</v>
+      </c>
+      <c r="X2">
+        <v>172.0494758280072</v>
+      </c>
+      <c r="Y2">
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>18</v>
+      </c>
+      <c r="AA2">
+        <v>438</v>
+      </c>
+      <c r="AB2">
+        <v>6.546148731498097</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.0965044150873086</v>
+      </c>
+      <c r="AF2">
+        <v>0.0965044150873086</v>
+      </c>
+      <c r="AG2">
+        <v>0.08736427163780183</v>
+      </c>
+      <c r="AI2">
+        <v>51.20863061777479</v>
+      </c>
+      <c r="AJ2">
+        <v>129.5505105394009</v>
+      </c>
+      <c r="AL2">
+        <v>40.05961251862892</v>
+      </c>
+      <c r="AM2">
+        <v>1605.829691803277</v>
+      </c>
+      <c r="AN2">
+        <v>363.504826789136</v>
+      </c>
+      <c r="AO2">
+        <v>1969.334518592413</v>
+      </c>
+      <c r="AP2">
+        <v>1052.082659736586</v>
+      </c>
+      <c r="AQ2">
+        <v>970.7344318501594</v>
+      </c>
+      <c r="AR2">
+        <v>23.66289705405784</v>
+      </c>
+      <c r="AS2">
+        <v>133.7246455797367</v>
+      </c>
+      <c r="AT2">
+        <v>4.174135040335802</v>
+      </c>
+      <c r="AU2">
+        <v>85.34771769629131</v>
+      </c>
+      <c r="AV2">
+        <v>51.36390785614395</v>
+      </c>
+      <c r="AW2">
+        <v>8.709665329168457</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:53">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N3">
-        <v>35.883885037268499</v>
+        <v>35.8838850372685</v>
       </c>
       <c r="O3">
         <v>1.5</v>
@@ -903,51 +1112,150 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S3">
+        <v>188.1072626046566</v>
+      </c>
+      <c r="T3">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U3">
+        <v>388.8766009</v>
+      </c>
+      <c r="V3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3">
+        <v>188.1072626046566</v>
+      </c>
+      <c r="X3">
+        <v>170.1072626046566</v>
+      </c>
+      <c r="Y3">
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>438</v>
+      </c>
+      <c r="AB3">
+        <v>6.546148731498097</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.09551818689447782</v>
+      </c>
+      <c r="AF3">
+        <v>0.09551818689447782</v>
+      </c>
+      <c r="AG3">
+        <v>0.08637804344497105</v>
+      </c>
+      <c r="AI3">
+        <v>50.88093374376582</v>
+      </c>
+      <c r="AJ3">
+        <v>132.220404510276</v>
+      </c>
+      <c r="AL3">
+        <v>40.05961251862892</v>
+      </c>
+      <c r="AM3">
+        <v>1605.829691803277</v>
+      </c>
+      <c r="AN3">
+        <v>363.504826789136</v>
+      </c>
+      <c r="AO3">
+        <v>1969.334518592413</v>
+      </c>
+      <c r="AP3">
+        <v>1052.082659736586</v>
+      </c>
+      <c r="AQ3">
+        <v>974.4714035291465</v>
+      </c>
+      <c r="AR3">
+        <v>24.21547661640395</v>
+      </c>
+      <c r="AS3">
+        <v>135.69211823918</v>
+      </c>
+      <c r="AT3">
+        <v>3.471713728903985</v>
+      </c>
+      <c r="AU3">
+        <v>84.80155623960971</v>
+      </c>
+      <c r="AV3">
+        <v>76.63055687060593</v>
+      </c>
+      <c r="AW3">
+        <v>12.99407564938526</v>
+      </c>
+      <c r="AX3">
+        <v>-15.2578629</v>
+      </c>
+      <c r="AY3">
+        <v>13.17740139999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:53">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N4">
-        <v>36.082010871334198</v>
+        <v>36.0820108713342</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -959,51 +1267,150 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S4">
+        <v>194.8002433907489</v>
+      </c>
+      <c r="T4">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U4">
+        <v>390.4413846</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4">
+        <v>194.8002433907489</v>
+      </c>
+      <c r="X4">
+        <v>176.8002433907489</v>
+      </c>
+      <c r="Y4">
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>18</v>
+      </c>
+      <c r="AA4">
+        <v>438</v>
+      </c>
+      <c r="AB4">
+        <v>6.546148731498097</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.09891678714390433</v>
+      </c>
+      <c r="AF4">
+        <v>0.09891678714390433</v>
+      </c>
+      <c r="AG4">
+        <v>0.08977664369439756</v>
+      </c>
+      <c r="AI4">
+        <v>52.94699873192771</v>
+      </c>
+      <c r="AJ4">
+        <v>130.5468511872081</v>
+      </c>
+      <c r="AL4">
+        <v>40.05961251862892</v>
+      </c>
+      <c r="AM4">
+        <v>1605.829691803277</v>
+      </c>
+      <c r="AN4">
+        <v>363.5048267891357</v>
+      </c>
+      <c r="AO4">
+        <v>1969.334518592412</v>
+      </c>
+      <c r="AP4">
+        <v>1052.082659736586</v>
+      </c>
+      <c r="AQ4">
+        <v>975.6050254783589</v>
+      </c>
+      <c r="AR4">
+        <v>31.3087588951784</v>
+      </c>
+      <c r="AS4">
+        <v>135.3159911155453</v>
+      </c>
+      <c r="AT4">
+        <v>4.769139928337232</v>
+      </c>
+      <c r="AU4">
+        <v>88.24499788654617</v>
+      </c>
+      <c r="AV4">
+        <v>39.47451204559339</v>
+      </c>
+      <c r="AW4">
+        <v>6.693606528386882</v>
+      </c>
+      <c r="AX4">
+        <v>-11.5999000202558</v>
+      </c>
+      <c r="AY4">
+        <v>15.29257621962125</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:53">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N5">
-        <v>36.280136705399897</v>
+        <v>36.2801367053999</v>
       </c>
       <c r="O5">
         <v>1.5</v>
@@ -1015,51 +1422,150 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S5">
+        <v>208.3118775126907</v>
+      </c>
+      <c r="T5">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U5">
+        <v>387.2758859</v>
+      </c>
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5">
+        <v>208.3118775126907</v>
+      </c>
+      <c r="X5">
+        <v>190.3118775126907</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>18</v>
+      </c>
+      <c r="AA5">
+        <v>438</v>
+      </c>
+      <c r="AB5">
+        <v>6.546148731498097</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.1057778023723376</v>
+      </c>
+      <c r="AF5">
+        <v>0.1057778023723376</v>
+      </c>
+      <c r="AG5">
+        <v>0.0966376589228308</v>
+      </c>
+      <c r="AI5">
+        <v>63.17997410378371</v>
+      </c>
+      <c r="AJ5">
+        <v>127.131903408907</v>
+      </c>
+      <c r="AL5">
+        <v>40.05961251862892</v>
+      </c>
+      <c r="AM5">
+        <v>1605.829691803277</v>
+      </c>
+      <c r="AN5">
+        <v>363.5048267891358</v>
+      </c>
+      <c r="AO5">
+        <v>1969.334518592412</v>
+      </c>
+      <c r="AP5">
+        <v>1052.082659736586</v>
+      </c>
+      <c r="AQ5">
+        <v>966.6748820529759</v>
+      </c>
+      <c r="AR5">
+        <v>27.66158532479066</v>
+      </c>
+      <c r="AS5">
+        <v>131.9295081250555</v>
+      </c>
+      <c r="AT5">
+        <v>4.797604716148531</v>
+      </c>
+      <c r="AU5">
+        <v>105.2999568396395</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>-11.1007</v>
+      </c>
+      <c r="AY5">
+        <v>17.12100000000001</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:53">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N6">
-        <v>36.478262539465497</v>
+        <v>36.4782625394655</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1071,51 +1577,150 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S6">
+        <v>245.1975755161424</v>
+      </c>
+      <c r="T6">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U6">
+        <v>166.7458537</v>
+      </c>
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6">
+        <v>245.1975755161424</v>
+      </c>
+      <c r="X6">
+        <v>227.1975755161424</v>
+      </c>
+      <c r="Y6">
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <v>438</v>
+      </c>
+      <c r="AB6">
+        <v>6.546148731498097</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.1245078340938227</v>
+      </c>
+      <c r="AF6">
+        <v>0.1245078340938227</v>
+      </c>
+      <c r="AG6">
+        <v>0.115367690644316</v>
+      </c>
+      <c r="AI6">
+        <v>63.5899162812636</v>
+      </c>
+      <c r="AJ6">
+        <v>166.8950319684691</v>
+      </c>
+      <c r="AL6">
+        <v>40.05961251862892</v>
+      </c>
+      <c r="AM6">
+        <v>1605.829691803277</v>
+      </c>
+      <c r="AN6">
+        <v>363.5048267891364</v>
+      </c>
+      <c r="AO6">
+        <v>1969.334518592413</v>
+      </c>
+      <c r="AP6">
+        <v>1052.082659736586</v>
+      </c>
+      <c r="AQ6">
+        <v>926.8368341435131</v>
+      </c>
+      <c r="AR6">
+        <v>1.051518534440804E-14</v>
+      </c>
+      <c r="AS6">
+        <v>166.8950319684691</v>
+      </c>
+      <c r="AT6">
+        <v>9.737379308237387E-16</v>
+      </c>
+      <c r="AU6">
+        <v>105.983193802106</v>
+      </c>
+      <c r="AV6">
+        <v>19.38677363542864</v>
+      </c>
+      <c r="AW6">
+        <v>3.287372733590256</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:53">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N7">
-        <v>36.676388373531204</v>
+        <v>36.6763883735312</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -1127,51 +1732,150 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S7">
+        <v>182.4876306132377</v>
+      </c>
+      <c r="T7">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U7">
+        <v>301.1672517</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7">
+        <v>182.4876306132377</v>
+      </c>
+      <c r="X7">
+        <v>164.4876306132377</v>
+      </c>
+      <c r="Y7">
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>18</v>
+      </c>
+      <c r="AA7">
+        <v>438</v>
+      </c>
+      <c r="AB7">
+        <v>6.764459925549929</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.09287628271422278</v>
+      </c>
+      <c r="AF7">
+        <v>0.09287628271422278</v>
+      </c>
+      <c r="AG7">
+        <v>0.08371526131656352</v>
+      </c>
+      <c r="AI7">
+        <v>46.87999210691915</v>
+      </c>
+      <c r="AJ7">
+        <v>131.4170457044391</v>
+      </c>
+      <c r="AL7">
+        <v>43.92250372578241</v>
+      </c>
+      <c r="AM7">
+        <v>1554.004327868852</v>
+      </c>
+      <c r="AN7">
+        <v>410.8420815718234</v>
+      </c>
+      <c r="AO7">
+        <v>1964.846409440675</v>
+      </c>
+      <c r="AP7">
+        <v>1037.58442153026</v>
+      </c>
+      <c r="AQ7">
+        <v>979.070720148981</v>
+      </c>
+      <c r="AR7">
+        <v>19.0117195841969</v>
+      </c>
+      <c r="AS7">
+        <v>134.7625688237867</v>
+      </c>
+      <c r="AT7">
+        <v>3.345523119347628</v>
+      </c>
+      <c r="AU7">
+        <v>78.13332017819859</v>
+      </c>
+      <c r="AV7">
+        <v>81.43884891842963</v>
+      </c>
+      <c r="AW7">
+        <v>13.80940719812055</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:53">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N8">
-        <v>36.874514207596903</v>
+        <v>36.8745142075969</v>
       </c>
       <c r="O8">
         <v>1.5</v>
@@ -1183,51 +1887,150 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S8">
+        <v>195.987167158567</v>
+      </c>
+      <c r="T8">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U8">
+        <v>390.8349234999999</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8">
+        <v>195.987167158567</v>
+      </c>
+      <c r="X8">
+        <v>177.987167158567</v>
+      </c>
+      <c r="Y8">
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>18</v>
+      </c>
+      <c r="AA8">
+        <v>438</v>
+      </c>
+      <c r="AB8">
+        <v>6.764459925549929</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.09974681288923641</v>
+      </c>
+      <c r="AF8">
+        <v>0.09974681288923641</v>
+      </c>
+      <c r="AG8">
+        <v>0.09058579149157715</v>
+      </c>
+      <c r="AI8">
+        <v>54.19157098500102</v>
+      </c>
+      <c r="AJ8">
+        <v>128.1620950262866</v>
+      </c>
+      <c r="AL8">
+        <v>43.92250372578241</v>
+      </c>
+      <c r="AM8">
+        <v>1554.004327868852</v>
+      </c>
+      <c r="AN8">
+        <v>410.8420815718237</v>
+      </c>
+      <c r="AO8">
+        <v>1964.846409440675</v>
+      </c>
+      <c r="AP8">
+        <v>1037.58442153026</v>
+      </c>
+      <c r="AQ8">
+        <v>993.3825858679185</v>
+      </c>
+      <c r="AR8">
+        <v>38.48595864029991</v>
+      </c>
+      <c r="AS8">
+        <v>134.7236611799891</v>
+      </c>
+      <c r="AT8">
+        <v>6.561566153702541</v>
+      </c>
+      <c r="AU8">
+        <v>90.31928497500171</v>
+      </c>
+      <c r="AV8">
+        <v>25.75075347315417</v>
+      </c>
+      <c r="AW8">
+        <v>4.366498852720521</v>
+      </c>
+      <c r="AX8">
+        <v>-9.859900699999997</v>
+      </c>
+      <c r="AY8">
+        <v>7.823154600000009</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:53">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>37.072640041662602</v>
+        <v>37.0726400416626</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1239,51 +2042,150 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <v>200.9018030007243</v>
+      </c>
+      <c r="T9">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U9">
+        <v>401.3889255000001</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9">
+        <v>200.9018030007243</v>
+      </c>
+      <c r="X9">
+        <v>182.9018030007243</v>
+      </c>
+      <c r="Y9">
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>18</v>
+      </c>
+      <c r="AA9">
+        <v>438</v>
+      </c>
+      <c r="AB9">
+        <v>6.764459925549929</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.1022480953398867</v>
+      </c>
+      <c r="AF9">
+        <v>0.1022480953398867</v>
+      </c>
+      <c r="AG9">
+        <v>0.09308707394222744</v>
+      </c>
+      <c r="AI9">
+        <v>56.99909569983489</v>
+      </c>
+      <c r="AJ9">
+        <v>125.9027073008894</v>
+      </c>
+      <c r="AL9">
+        <v>43.92250372578241</v>
+      </c>
+      <c r="AM9">
+        <v>1554.004327868852</v>
+      </c>
+      <c r="AN9">
+        <v>410.8420815718239</v>
+      </c>
+      <c r="AO9">
+        <v>1964.846409440676</v>
+      </c>
+      <c r="AP9">
+        <v>1037.58442153026</v>
+      </c>
+      <c r="AQ9">
+        <v>998.8278535365466</v>
+      </c>
+      <c r="AR9">
+        <v>46.99686141939776</v>
+      </c>
+      <c r="AS9">
+        <v>134.0621421944239</v>
+      </c>
+      <c r="AT9">
+        <v>8.159434893534495</v>
+      </c>
+      <c r="AU9">
+        <v>94.99849283305815</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>-9.682501171063457</v>
+      </c>
+      <c r="AY9">
+        <v>13.10086876805443</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:53">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>37.270765875728301</v>
+        <v>37.2707658757283</v>
       </c>
       <c r="O10">
         <v>1.5</v>
@@ -1295,51 +2197,150 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S10">
+        <v>204.9642770124445</v>
+      </c>
+      <c r="T10">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U10">
+        <v>314.6729022999998</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10">
+        <v>204.9642770124445</v>
+      </c>
+      <c r="X10">
+        <v>186.9642770124445</v>
+      </c>
+      <c r="Y10">
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>438</v>
+      </c>
+      <c r="AB10">
+        <v>6.764459925549929</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.1043156737481536</v>
+      </c>
+      <c r="AF10">
+        <v>0.1043156737481536</v>
+      </c>
+      <c r="AG10">
+        <v>0.09515465235049432</v>
+      </c>
+      <c r="AI10">
+        <v>59.9650394909133</v>
+      </c>
+      <c r="AJ10">
+        <v>126.9992375215312</v>
+      </c>
+      <c r="AL10">
+        <v>43.92250372578241</v>
+      </c>
+      <c r="AM10">
+        <v>1554.004327868852</v>
+      </c>
+      <c r="AN10">
+        <v>410.8420815718239</v>
+      </c>
+      <c r="AO10">
+        <v>1964.846409440676</v>
+      </c>
+      <c r="AP10">
+        <v>1037.58442153026</v>
+      </c>
+      <c r="AQ10">
+        <v>1004.706025155547</v>
+      </c>
+      <c r="AR10">
+        <v>54.4850360475768</v>
+      </c>
+      <c r="AS10">
+        <v>136.4956186949237</v>
+      </c>
+      <c r="AT10">
+        <v>9.496381173392498</v>
+      </c>
+      <c r="AU10">
+        <v>99.94173248485549</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>-11.4065</v>
+      </c>
+      <c r="AY10">
+        <v>15.6701</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:53">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N11">
-        <v>37.468891709794001</v>
+        <v>37.468891709794</v>
       </c>
       <c r="O11">
         <v>1.5</v>
@@ -1351,48 +2352,147 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S11">
+        <v>251.2952860830593</v>
+      </c>
+      <c r="T11">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U11">
+        <v>154.8762104</v>
+      </c>
+      <c r="V11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11">
+        <v>251.2952860830593</v>
+      </c>
+      <c r="X11">
+        <v>233.2952860830593</v>
+      </c>
+      <c r="Y11">
+        <v>18</v>
+      </c>
+      <c r="Z11">
+        <v>18</v>
+      </c>
+      <c r="AA11">
+        <v>438</v>
+      </c>
+      <c r="AB11">
+        <v>6.764459925549929</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0.1278956384965451</v>
+      </c>
+      <c r="AF11">
+        <v>0.1278956384965451</v>
+      </c>
+      <c r="AG11">
+        <v>0.1187346170988858</v>
+      </c>
+      <c r="AI11">
+        <v>65.70361580246515</v>
+      </c>
+      <c r="AJ11">
+        <v>170.1987395287766</v>
+      </c>
+      <c r="AL11">
+        <v>43.92250372578241</v>
+      </c>
+      <c r="AM11">
+        <v>1554.004327868852</v>
+      </c>
+      <c r="AN11">
+        <v>410.8420815718241</v>
+      </c>
+      <c r="AO11">
+        <v>1964.846409440676</v>
+      </c>
+      <c r="AP11">
+        <v>1037.58442153026</v>
+      </c>
+      <c r="AQ11">
+        <v>935.5248540446012</v>
+      </c>
+      <c r="AR11">
+        <v>1.448617678867089E-14</v>
+      </c>
+      <c r="AS11">
+        <v>170.1987395287766</v>
+      </c>
+      <c r="AT11">
+        <v>1.152108512913715E-15</v>
+      </c>
+      <c r="AU11">
+        <v>109.5060263374419</v>
+      </c>
+      <c r="AV11">
+        <v>15.37478876367031</v>
+      </c>
+      <c r="AW11">
+        <v>2.607069248182416</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:53">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>37.6670175438596</v>
@@ -1407,48 +2507,147 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S12">
+        <v>208.0283058199064</v>
+      </c>
+      <c r="T12">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U12">
+        <v>411.4515669</v>
+      </c>
+      <c r="V12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12">
+        <v>208.0283058199064</v>
+      </c>
+      <c r="X12">
+        <v>190.0283058199064</v>
+      </c>
+      <c r="Y12">
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>18</v>
+      </c>
+      <c r="AA12">
+        <v>438</v>
+      </c>
+      <c r="AB12">
+        <v>6.350268332209112</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.100069716841841</v>
+      </c>
+      <c r="AF12">
+        <v>0.100069716841841</v>
+      </c>
+      <c r="AG12">
+        <v>0.09141101582491057</v>
+      </c>
+      <c r="AI12">
+        <v>53.74814255044356</v>
+      </c>
+      <c r="AJ12">
+        <v>141.335286277104</v>
+      </c>
+      <c r="AL12">
+        <v>49.07302533532042</v>
+      </c>
+      <c r="AM12">
+        <v>1655.363120119227</v>
+      </c>
+      <c r="AN12">
+        <v>423.4706408345754</v>
+      </c>
+      <c r="AO12">
+        <v>2078.833760953803</v>
+      </c>
+      <c r="AP12">
+        <v>1073.036331832437</v>
+      </c>
+      <c r="AQ12">
+        <v>1045.874235084566</v>
+      </c>
+      <c r="AR12">
+        <v>13.2944903261362</v>
+      </c>
+      <c r="AS12">
+        <v>143.6804343706345</v>
+      </c>
+      <c r="AT12">
+        <v>2.345148093530423</v>
+      </c>
+      <c r="AU12">
+        <v>89.58023758407261</v>
+      </c>
+      <c r="AV12">
+        <v>29.81180820994217</v>
+      </c>
+      <c r="AW12">
+        <v>5.055123007641143</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:53">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>37.8651433779253</v>
@@ -1463,51 +2662,150 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S13">
+        <v>206.1505972035442</v>
+      </c>
+      <c r="T13">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U13">
+        <v>428.2050437999999</v>
+      </c>
+      <c r="V13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W13">
+        <v>206.1505972035442</v>
+      </c>
+      <c r="X13">
+        <v>188.1505972035442</v>
+      </c>
+      <c r="Y13">
+        <v>18</v>
+      </c>
+      <c r="Z13">
+        <v>18</v>
+      </c>
+      <c r="AA13">
+        <v>438</v>
+      </c>
+      <c r="AB13">
+        <v>6.350268332209112</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0.09916646586928576</v>
+      </c>
+      <c r="AF13">
+        <v>0.09916646586928576</v>
+      </c>
+      <c r="AG13">
+        <v>0.09050776485235533</v>
+      </c>
+      <c r="AI13">
+        <v>53.80996136117827</v>
+      </c>
+      <c r="AJ13">
+        <v>139.9385161348943</v>
+      </c>
+      <c r="AL13">
+        <v>49.07302533532042</v>
+      </c>
+      <c r="AM13">
+        <v>1655.363120119227</v>
+      </c>
+      <c r="AN13">
+        <v>423.470640834575</v>
+      </c>
+      <c r="AO13">
+        <v>2078.833760953803</v>
+      </c>
+      <c r="AP13">
+        <v>1073.036331832437</v>
+      </c>
+      <c r="AQ13">
+        <v>1047.239186629685</v>
+      </c>
+      <c r="AR13">
+        <v>14.57159475981293</v>
+      </c>
+      <c r="AS13">
+        <v>142.4802289569129</v>
+      </c>
+      <c r="AT13">
+        <v>2.541712822018601</v>
+      </c>
+      <c r="AU13">
+        <v>89.68326893529712</v>
+      </c>
+      <c r="AV13">
+        <v>33.01263557994834</v>
+      </c>
+      <c r="AW13">
+        <v>5.597880292528327</v>
+      </c>
+      <c r="AX13">
+        <v>-4.334197000000003</v>
+      </c>
+      <c r="AY13">
+        <v>9.491214799999995</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:53">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N14">
-        <v>38.063269211990999</v>
+        <v>38.063269211991</v>
       </c>
       <c r="O14">
         <v>1.5</v>
@@ -1519,51 +2817,150 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S14">
+        <v>214.9774307066564</v>
+      </c>
+      <c r="T14">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U14">
+        <v>430.7251440999999</v>
+      </c>
+      <c r="V14" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14">
+        <v>214.9774307066564</v>
+      </c>
+      <c r="X14">
+        <v>196.9774307066564</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>18</v>
+      </c>
+      <c r="AA14">
+        <v>438</v>
+      </c>
+      <c r="AB14">
+        <v>6.350268332209112</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.103412516548712</v>
+      </c>
+      <c r="AF14">
+        <v>0.103412516548712</v>
+      </c>
+      <c r="AG14">
+        <v>0.0947538155317816</v>
+      </c>
+      <c r="AI14">
+        <v>58.71183134428288</v>
+      </c>
+      <c r="AJ14">
+        <v>138.2655993623735</v>
+      </c>
+      <c r="AL14">
+        <v>49.07302533532042</v>
+      </c>
+      <c r="AM14">
+        <v>1655.363120119227</v>
+      </c>
+      <c r="AN14">
+        <v>423.4706408345751</v>
+      </c>
+      <c r="AO14">
+        <v>2078.833760953803</v>
+      </c>
+      <c r="AP14">
+        <v>1073.036331832437</v>
+      </c>
+      <c r="AQ14">
+        <v>1049.989344866021</v>
+      </c>
+      <c r="AR14">
+        <v>22.17188378986125</v>
+      </c>
+      <c r="AS14">
+        <v>142.1370489086943</v>
+      </c>
+      <c r="AT14">
+        <v>3.871449546320772</v>
+      </c>
+      <c r="AU14">
+        <v>97.85305224047147</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>-8.642240324097244</v>
+      </c>
+      <c r="AY14">
+        <v>13.89651338170994</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:53">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N15">
-        <v>38.261395046056698</v>
+        <v>38.2613950460567</v>
       </c>
       <c r="O15">
         <v>1.5</v>
@@ -1575,51 +2972,150 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S15">
+        <v>219.5606325045861</v>
+      </c>
+      <c r="T15">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U15">
+        <v>432.2190255999999</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15">
+        <v>219.5606325045861</v>
+      </c>
+      <c r="X15">
+        <v>201.5606325045861</v>
+      </c>
+      <c r="Y15">
+        <v>18</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>438</v>
+      </c>
+      <c r="AB15">
+        <v>6.350268332209112</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.1056172151080749</v>
+      </c>
+      <c r="AF15">
+        <v>0.1056172151080749</v>
+      </c>
+      <c r="AG15">
+        <v>0.09695851409114448</v>
+      </c>
+      <c r="AI15">
+        <v>62.34230791232758</v>
+      </c>
+      <c r="AJ15">
+        <v>139.3717705678379</v>
+      </c>
+      <c r="AL15">
+        <v>49.07302533532042</v>
+      </c>
+      <c r="AM15">
+        <v>1655.363120119227</v>
+      </c>
+      <c r="AN15">
+        <v>423.470640834575</v>
+      </c>
+      <c r="AO15">
+        <v>2078.833760953803</v>
+      </c>
+      <c r="AP15">
+        <v>1073.036331832437</v>
+      </c>
+      <c r="AQ15">
+        <v>1045.752445909689</v>
+      </c>
+      <c r="AR15">
+        <v>16.93155240537524</v>
+      </c>
+      <c r="AS15">
+        <v>142.2577628912605</v>
+      </c>
+      <c r="AT15">
+        <v>2.885992323422657</v>
+      </c>
+      <c r="AU15">
+        <v>103.903846520546</v>
+      </c>
+      <c r="AV15">
+        <v>0.9049239726992832</v>
+      </c>
+      <c r="AW15">
+        <v>0.1534459755793205</v>
+      </c>
+      <c r="AX15">
+        <v>-12.32389999999999</v>
+      </c>
+      <c r="AY15">
+        <v>15.79040000000001</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:53">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N16">
-        <v>38.459520880122398</v>
+        <v>38.4595208801224</v>
       </c>
       <c r="O16">
         <v>1.5</v>
@@ -1631,51 +3127,150 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S16">
+        <v>263.901111952337</v>
+      </c>
+      <c r="T16">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U16">
+        <v>172.1269706000003</v>
+      </c>
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16">
+        <v>263.901111952337</v>
+      </c>
+      <c r="X16">
+        <v>245.901111952337</v>
+      </c>
+      <c r="Y16">
+        <v>18</v>
+      </c>
+      <c r="Z16">
+        <v>18</v>
+      </c>
+      <c r="AA16">
+        <v>438</v>
+      </c>
+      <c r="AB16">
+        <v>6.350268332209112</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.1269467125794873</v>
+      </c>
+      <c r="AF16">
+        <v>0.1269467125794873</v>
+      </c>
+      <c r="AG16">
+        <v>0.1182880115625569</v>
+      </c>
+      <c r="AI16">
+        <v>61.20697117071216</v>
+      </c>
+      <c r="AJ16">
+        <v>184.6941407816248</v>
+      </c>
+      <c r="AL16">
+        <v>49.07302533532042</v>
+      </c>
+      <c r="AM16">
+        <v>1655.363120119227</v>
+      </c>
+      <c r="AN16">
+        <v>423.4706408345752</v>
+      </c>
+      <c r="AO16">
+        <v>2078.833760953803</v>
+      </c>
+      <c r="AP16">
+        <v>1073.036331832437</v>
+      </c>
+      <c r="AQ16">
+        <v>1011.683030408801</v>
+      </c>
+      <c r="AR16">
+        <v>1.404142574691346E-14</v>
+      </c>
+      <c r="AS16">
+        <v>184.6941407816248</v>
+      </c>
+      <c r="AT16">
+        <v>1.166175353005872E-15</v>
+      </c>
+      <c r="AU16">
+        <v>102.0116186178536</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:53">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N17">
-        <v>38.657646714188097</v>
+        <v>38.6576467141881</v>
       </c>
       <c r="O17">
         <v>1.5</v>
@@ -1687,51 +3282,150 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S17">
+        <v>292.3042042938638</v>
+      </c>
+      <c r="T17">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U17">
+        <v>387.7650742999999</v>
+      </c>
+      <c r="V17" t="s">
+        <v>92</v>
+      </c>
+      <c r="W17">
+        <v>292.3042042938638</v>
+      </c>
+      <c r="X17">
+        <v>274.3042042938638</v>
+      </c>
+      <c r="Y17">
+        <v>18</v>
+      </c>
+      <c r="Z17">
+        <v>18</v>
+      </c>
+      <c r="AA17">
+        <v>438</v>
+      </c>
+      <c r="AB17">
+        <v>5.973967184549318</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.1330767413368847</v>
+      </c>
+      <c r="AF17">
+        <v>0.1330767413368847</v>
+      </c>
+      <c r="AG17">
+        <v>0.1248819178999431</v>
+      </c>
+      <c r="AI17">
+        <v>73.19328826333582</v>
+      </c>
+      <c r="AJ17">
+        <v>201.110916030528</v>
+      </c>
+      <c r="AL17">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM17">
+        <v>1759.634707600597</v>
+      </c>
+      <c r="AN17">
+        <v>436.873873518727</v>
+      </c>
+      <c r="AO17">
+        <v>2196.508581119324</v>
+      </c>
+      <c r="AP17">
+        <v>768.0557906085266</v>
+      </c>
+      <c r="AQ17">
+        <v>1455.440382239236</v>
+      </c>
+      <c r="AR17">
+        <v>4.182706365969062</v>
+      </c>
+      <c r="AS17">
+        <v>201.8437068919684</v>
+      </c>
+      <c r="AT17">
+        <v>0.7327908614403813</v>
+      </c>
+      <c r="AU17">
+        <v>121.9888137722264</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:53">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N18">
-        <v>38.855772548253697</v>
+        <v>38.8557725482537</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -1743,51 +3437,150 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S18">
+        <v>291.1666247152132</v>
+      </c>
+      <c r="T18">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U18">
+        <v>458.2078007999999</v>
+      </c>
+      <c r="V18" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18">
+        <v>291.1666247152132</v>
+      </c>
+      <c r="X18">
+        <v>273.1666247152132</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>438</v>
+      </c>
+      <c r="AB18">
+        <v>5.973967184549318</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0.1325723015872654</v>
+      </c>
+      <c r="AF18">
+        <v>0.1325723015872654</v>
+      </c>
+      <c r="AG18">
+        <v>0.1243766458148883</v>
+      </c>
+      <c r="AI18">
+        <v>72.49237256806329</v>
+      </c>
+      <c r="AJ18">
+        <v>200.6742521471499</v>
+      </c>
+      <c r="AL18">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM18">
+        <v>1759.634707600597</v>
+      </c>
+      <c r="AN18">
+        <v>436.6508002251355</v>
+      </c>
+      <c r="AO18">
+        <v>2196.285507825732</v>
+      </c>
+      <c r="AP18">
+        <v>768.0557906085266</v>
+      </c>
+      <c r="AQ18">
+        <v>1457.275426581115</v>
+      </c>
+      <c r="AR18">
+        <v>6.928456136812323</v>
+      </c>
+      <c r="AS18">
+        <v>201.6668310642534</v>
+      </c>
+      <c r="AT18">
+        <v>0.9925789171034883</v>
+      </c>
+      <c r="AU18">
+        <v>120.8206209467722</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>-7.4896368</v>
+      </c>
+      <c r="AY18">
+        <v>11.2403036</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:53">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N19">
-        <v>39.053898382319403</v>
+        <v>39.0538983823194</v>
       </c>
       <c r="O19">
         <v>1.5</v>
@@ -1799,51 +3592,150 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S19">
+        <v>290.1640523735409</v>
+      </c>
+      <c r="T19">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U19">
+        <v>465.6619581999998</v>
+      </c>
+      <c r="V19" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19">
+        <v>290.1640523735409</v>
+      </c>
+      <c r="X19">
+        <v>272.1640523735409</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>18</v>
+      </c>
+      <c r="AA19">
+        <v>438</v>
+      </c>
+      <c r="AB19">
+        <v>5.973967184549318</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0.1321010321214528</v>
+      </c>
+      <c r="AF19">
+        <v>0.1321010321214528</v>
+      </c>
+      <c r="AG19">
+        <v>0.1239062934598729</v>
+      </c>
+      <c r="AI19">
+        <v>69.76837095303532</v>
+      </c>
+      <c r="AJ19">
+        <v>202.3956814205056</v>
+      </c>
+      <c r="AL19">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM19">
+        <v>1759.634707600597</v>
+      </c>
+      <c r="AN19">
+        <v>436.8965966118191</v>
+      </c>
+      <c r="AO19">
+        <v>2196.531304212416</v>
+      </c>
+      <c r="AP19">
+        <v>768.0557906085266</v>
+      </c>
+      <c r="AQ19">
+        <v>1456.883554255284</v>
+      </c>
+      <c r="AR19">
+        <v>7.436267395243144</v>
+      </c>
+      <c r="AS19">
+        <v>203.6884978406155</v>
+      </c>
+      <c r="AT19">
+        <v>1.292816420109963</v>
+      </c>
+      <c r="AU19">
+        <v>116.2806182550589</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>-7.928217658075972</v>
+      </c>
+      <c r="AY19">
+        <v>12.19975250977301</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:53">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N20">
-        <v>39.252024216385102</v>
+        <v>39.2520242163851</v>
       </c>
       <c r="O20">
         <v>1.5</v>
@@ -1855,51 +3747,150 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S20">
+        <v>302.1224936608</v>
+      </c>
+      <c r="T20">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U20">
+        <v>382.6809902999998</v>
+      </c>
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20">
+        <v>302.1224936608</v>
+      </c>
+      <c r="X20">
+        <v>284.1224936608</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>438</v>
+      </c>
+      <c r="AB20">
+        <v>5.973967184549318</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0.1375458979789392</v>
+      </c>
+      <c r="AF20">
+        <v>0.1375458979789392</v>
+      </c>
+      <c r="AG20">
+        <v>0.1293511219673239</v>
+      </c>
+      <c r="AI20">
+        <v>85.40261286537613</v>
+      </c>
+      <c r="AJ20">
+        <v>198.7198807954239</v>
+      </c>
+      <c r="AL20">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM20">
+        <v>1759.634707600597</v>
+      </c>
+      <c r="AN20">
+        <v>436.8865852921991</v>
+      </c>
+      <c r="AO20">
+        <v>2196.521292892796</v>
+      </c>
+      <c r="AP20">
+        <v>768.0557906085266</v>
+      </c>
+      <c r="AQ20">
+        <v>1457.394082870798</v>
+      </c>
+      <c r="AR20">
+        <v>6.0702023033167</v>
+      </c>
+      <c r="AS20">
+        <v>199.7825627772399</v>
+      </c>
+      <c r="AT20">
+        <v>1.062681981816067</v>
+      </c>
+      <c r="AU20">
+        <v>142.3376881089602</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>-14.2308</v>
+      </c>
+      <c r="AY20">
+        <v>14.51110000000001</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:53">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N21">
-        <v>39.450150050450802</v>
+        <v>39.4501500504508</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -1911,51 +3902,150 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S21">
+        <v>366.4546532532415</v>
+      </c>
+      <c r="T21">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U21">
+        <v>162.6094149</v>
+      </c>
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+      <c r="W21">
+        <v>366.4546532532415</v>
+      </c>
+      <c r="X21">
+        <v>348.4546532532415</v>
+      </c>
+      <c r="Y21">
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AA21">
+        <v>438</v>
+      </c>
+      <c r="AB21">
+        <v>5.973967184549318</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0.1666505476664006</v>
+      </c>
+      <c r="AF21">
+        <v>0.1666505476664006</v>
+      </c>
+      <c r="AG21">
+        <v>0.1584647876238825</v>
+      </c>
+      <c r="AI21">
+        <v>92.23396158051955</v>
+      </c>
+      <c r="AJ21">
+        <v>256.220691672722</v>
+      </c>
+      <c r="AL21">
+        <v>50.93293591654248</v>
+      </c>
+      <c r="AM21">
+        <v>1759.634707600597</v>
+      </c>
+      <c r="AN21">
+        <v>439.3058802623771</v>
+      </c>
+      <c r="AO21">
+        <v>2198.940587862974</v>
+      </c>
+      <c r="AP21">
+        <v>768.0557906085266</v>
+      </c>
+      <c r="AQ21">
+        <v>1435.3097484374</v>
+      </c>
+      <c r="AR21">
+        <v>1.353053544665694</v>
+      </c>
+      <c r="AS21">
+        <v>256.3676332876727</v>
+      </c>
+      <c r="AT21">
+        <v>0.1469416149506941</v>
+      </c>
+      <c r="AU21">
+        <v>153.7232693008659</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:53">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N22">
-        <v>39.648275884516501</v>
+        <v>39.6482758845165</v>
       </c>
       <c r="O22">
         <v>1.5</v>
@@ -1967,48 +4057,147 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S22">
+        <v>250.8295309138986</v>
+      </c>
+      <c r="T22">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U22">
+        <v>513.3391943000001</v>
+      </c>
+      <c r="V22" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22">
+        <v>250.8295309138986</v>
+      </c>
+      <c r="X22">
+        <v>232.8295309138986</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>438</v>
+      </c>
+      <c r="AB22">
+        <v>5.836571610013924</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0.1052466996260353</v>
+      </c>
+      <c r="AF22">
+        <v>0.1052466996260353</v>
+      </c>
+      <c r="AG22">
+        <v>0.09769399805072143</v>
+      </c>
+      <c r="AI22">
+        <v>63.17086888554063</v>
+      </c>
+      <c r="AJ22">
+        <v>187.0395837323506</v>
+      </c>
+      <c r="AL22">
+        <v>65.09687034277198</v>
+      </c>
+      <c r="AM22">
+        <v>1801.057316244411</v>
+      </c>
+      <c r="AN22">
+        <v>582.1958575382466</v>
+      </c>
+      <c r="AO22">
+        <v>2383.253173782658</v>
+      </c>
+      <c r="AP22">
+        <v>1090.756044588958</v>
+      </c>
+      <c r="AQ22">
+        <v>1329.86158780414</v>
+      </c>
+      <c r="AR22">
+        <v>2.763810045206947E-15</v>
+      </c>
+      <c r="AS22">
+        <v>187.0395837323506</v>
+      </c>
+      <c r="AT22">
+        <v>3.678535866375784E-16</v>
+      </c>
+      <c r="AU22">
+        <v>105.7410675531589</v>
+      </c>
+      <c r="AV22">
+        <v>102.501304828433</v>
+      </c>
+      <c r="AW22">
+        <v>17.38092170399264</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>39.8464017185822</v>
@@ -2023,48 +4212,147 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S23">
+        <v>251.1056795777395</v>
+      </c>
+      <c r="T23">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U23">
+        <v>558.1241329999998</v>
+      </c>
+      <c r="V23" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23">
+        <v>251.1056795777395</v>
+      </c>
+      <c r="X23">
+        <v>233.1056795777395</v>
+      </c>
+      <c r="Y23">
+        <v>18</v>
+      </c>
+      <c r="Z23">
+        <v>18</v>
+      </c>
+      <c r="AA23">
+        <v>438</v>
+      </c>
+      <c r="AB23">
+        <v>5.836571610013924</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0.1053806232842806</v>
+      </c>
+      <c r="AF23">
+        <v>0.1053806232842806</v>
+      </c>
+      <c r="AG23">
+        <v>0.09782662760283363</v>
+      </c>
+      <c r="AI23">
+        <v>63.15590905620346</v>
+      </c>
+      <c r="AJ23">
+        <v>187.6878505746298</v>
+      </c>
+      <c r="AL23">
+        <v>65.09687034277198</v>
+      </c>
+      <c r="AM23">
+        <v>1801.057316244411</v>
+      </c>
+      <c r="AN23">
+        <v>581.7875726147385</v>
+      </c>
+      <c r="AO23">
+        <v>2382.84488885915</v>
+      </c>
+      <c r="AP23">
+        <v>1090.756044588958</v>
+      </c>
+      <c r="AQ23">
+        <v>1332.368128008599</v>
+      </c>
+      <c r="AR23">
+        <v>2.096083754222485</v>
+      </c>
+      <c r="AS23">
+        <v>187.8879511914297</v>
+      </c>
+      <c r="AT23">
+        <v>0.2001006167998849</v>
+      </c>
+      <c r="AU23">
+        <v>105.5970074557654</v>
+      </c>
+      <c r="AV23">
+        <v>104.6075911023548</v>
+      </c>
+      <c r="AW23">
+        <v>17.73808005309372</v>
+      </c>
+      <c r="AX23">
+        <v>-6.132893799999998</v>
+      </c>
+      <c r="AY23">
+        <v>11.1023223</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>40.0445275526478</v>
@@ -2079,51 +4367,150 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S24">
+        <v>264.2407170931704</v>
+      </c>
+      <c r="T24">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U24">
+        <v>522.3653531999998</v>
+      </c>
+      <c r="V24" t="s">
+        <v>99</v>
+      </c>
+      <c r="W24">
+        <v>264.2407170931704</v>
+      </c>
+      <c r="X24">
+        <v>246.2407170931704</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <v>438</v>
+      </c>
+      <c r="AB24">
+        <v>5.836571610013924</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0.1108708291033026</v>
+      </c>
+      <c r="AF24">
+        <v>0.1108708291033026</v>
+      </c>
+      <c r="AG24">
+        <v>0.103318340804704</v>
+      </c>
+      <c r="AI24">
+        <v>65.52532544629581</v>
+      </c>
+      <c r="AJ24">
+        <v>185.457671121429</v>
+      </c>
+      <c r="AL24">
+        <v>65.09687034277198</v>
+      </c>
+      <c r="AM24">
+        <v>1801.057316244411</v>
+      </c>
+      <c r="AN24">
+        <v>582.263158855196</v>
+      </c>
+      <c r="AO24">
+        <v>2383.320475099607</v>
+      </c>
+      <c r="AP24">
+        <v>1090.756044588958</v>
+      </c>
+      <c r="AQ24">
+        <v>1320.264186566388</v>
+      </c>
+      <c r="AR24">
+        <v>1.804975260804773</v>
+      </c>
+      <c r="AS24">
+        <v>185.7760687574349</v>
+      </c>
+      <c r="AT24">
+        <v>0.3183976360059616</v>
+      </c>
+      <c r="AU24">
+        <v>110.2457236846032</v>
+      </c>
+      <c r="AV24">
+        <v>27.96686172812445</v>
+      </c>
+      <c r="AW24">
+        <v>4.742279474554378</v>
+      </c>
+      <c r="AX24">
+        <v>-9.394994011513326</v>
+      </c>
+      <c r="AY24">
+        <v>11.72459746592199</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:53">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N25">
-        <v>40.242653386713499</v>
+        <v>40.2426533867135</v>
       </c>
       <c r="O25">
         <v>1.5</v>
@@ -2135,51 +4522,150 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S25">
+        <v>278.610647851492</v>
+      </c>
+      <c r="T25">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U25">
+        <v>504.4036981999998</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25">
+        <v>278.610647851492</v>
+      </c>
+      <c r="X25">
+        <v>260.610647851492</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>18</v>
+      </c>
+      <c r="AA25">
+        <v>438</v>
+      </c>
+      <c r="AB25">
+        <v>5.836571610013924</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0.1169528580580743</v>
+      </c>
+      <c r="AF25">
+        <v>0.1169528580580743</v>
+      </c>
+      <c r="AG25">
+        <v>0.1093969679250904</v>
+      </c>
+      <c r="AI25">
+        <v>78.02356545974935</v>
+      </c>
+      <c r="AJ25">
+        <v>182.5870823917427</v>
+      </c>
+      <c r="AL25">
+        <v>65.09687034277198</v>
+      </c>
+      <c r="AM25">
+        <v>1801.057316244411</v>
+      </c>
+      <c r="AN25">
+        <v>581.1901335198755</v>
+      </c>
+      <c r="AO25">
+        <v>2382.247449764287</v>
+      </c>
+      <c r="AP25">
+        <v>1090.756044588958</v>
+      </c>
+      <c r="AQ25">
+        <v>1315.900754752531</v>
+      </c>
+      <c r="AR25">
+        <v>1.355367854700245</v>
+      </c>
+      <c r="AS25">
+        <v>182.7216038314909</v>
+      </c>
+      <c r="AT25">
+        <v>0.1345214397482367</v>
+      </c>
+      <c r="AU25">
+        <v>132.7628455514824</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>-15.6567</v>
+      </c>
+      <c r="AY25">
+        <v>13.9679</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:53">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N26">
-        <v>40.440779220779199</v>
+        <v>40.4407792207792</v>
       </c>
       <c r="O26">
         <v>1.5</v>
@@ -2191,51 +4677,150 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S26">
+        <v>344.0996402119604</v>
+      </c>
+      <c r="T26">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U26">
+        <v>172.5040891999997</v>
+      </c>
+      <c r="V26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26">
+        <v>344.0996402119604</v>
+      </c>
+      <c r="X26">
+        <v>326.0996402119604</v>
+      </c>
+      <c r="Y26">
+        <v>18</v>
+      </c>
+      <c r="Z26">
+        <v>18</v>
+      </c>
+      <c r="AA26">
+        <v>438</v>
+      </c>
+      <c r="AB26">
+        <v>5.836571610013924</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0.144329317180694</v>
+      </c>
+      <c r="AF26">
+        <v>0.144329317180694</v>
+      </c>
+      <c r="AG26">
+        <v>0.1367793885970657</v>
+      </c>
+      <c r="AI26">
+        <v>85.84143203046267</v>
+      </c>
+      <c r="AJ26">
+        <v>240.2582081814977</v>
+      </c>
+      <c r="AL26">
+        <v>65.09687034277198</v>
+      </c>
+      <c r="AM26">
+        <v>1801.057316244411</v>
+      </c>
+      <c r="AN26">
+        <v>583.0711957831393</v>
+      </c>
+      <c r="AO26">
+        <v>2384.128512027551</v>
+      </c>
+      <c r="AP26">
+        <v>1090.756044588958</v>
+      </c>
+      <c r="AQ26">
+        <v>1297.2157915507</v>
+      </c>
+      <c r="AR26">
+        <v>9.403307740014441E-15</v>
+      </c>
+      <c r="AS26">
+        <v>240.2582081814977</v>
+      </c>
+      <c r="AT26">
+        <v>8.928059483965061E-16</v>
+      </c>
+      <c r="AU26">
+        <v>144.3167574057777</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:53">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N27">
-        <v>40.638905054844898</v>
+        <v>40.6389050548449</v>
       </c>
       <c r="O27">
         <v>1.5</v>
@@ -2247,51 +4832,150 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S27">
+        <v>294.208889677073</v>
+      </c>
+      <c r="T27">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U27">
+        <v>447.3650549000004</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27">
+        <v>294.208889677073</v>
+      </c>
+      <c r="X27">
+        <v>276.208889677073</v>
+      </c>
+      <c r="Y27">
+        <v>18</v>
+      </c>
+      <c r="Z27">
+        <v>18</v>
+      </c>
+      <c r="AA27">
+        <v>438</v>
+      </c>
+      <c r="AB27">
+        <v>5.694037641746907</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0.120672562520698</v>
+      </c>
+      <c r="AF27">
+        <v>0.120672562520698</v>
+      </c>
+      <c r="AG27">
+        <v>0.1132896920447015</v>
+      </c>
+      <c r="AI27">
+        <v>66.02721242102393</v>
+      </c>
+      <c r="AJ27">
+        <v>210.1816772560491</v>
+      </c>
+      <c r="AL27">
+        <v>64.23845007451565</v>
+      </c>
+      <c r="AM27">
+        <v>1846.141641728761</v>
+      </c>
+      <c r="AN27">
+        <v>591.9344505611476</v>
+      </c>
+      <c r="AO27">
+        <v>2438.076092289909</v>
+      </c>
+      <c r="AP27">
+        <v>957.0549845160365</v>
+      </c>
+      <c r="AQ27">
+        <v>1504.545642599955</v>
+      </c>
+      <c r="AR27">
+        <v>7.147784599673138E-15</v>
+      </c>
+      <c r="AS27">
+        <v>210.1816772560491</v>
+      </c>
+      <c r="AT27">
+        <v>8.315637299465067E-16</v>
+      </c>
+      <c r="AU27">
+        <v>110.0453540350399</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:53">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N28">
-        <v>40.837030888910597</v>
+        <v>40.8370308889106</v>
       </c>
       <c r="O28">
         <v>1.5</v>
@@ -2303,51 +4987,150 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S28">
+        <v>293.9824172843867</v>
+      </c>
+      <c r="T28">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U28">
+        <v>508.1697584000003</v>
+      </c>
+      <c r="V28" t="s">
+        <v>103</v>
+      </c>
+      <c r="W28">
+        <v>293.9824172843867</v>
+      </c>
+      <c r="X28">
+        <v>275.9824172843867</v>
+      </c>
+      <c r="Y28">
+        <v>18</v>
+      </c>
+      <c r="Z28">
+        <v>18</v>
+      </c>
+      <c r="AA28">
+        <v>438</v>
+      </c>
+      <c r="AB28">
+        <v>5.694037641746907</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0.1205879283893097</v>
+      </c>
+      <c r="AF28">
+        <v>0.1205879283893097</v>
+      </c>
+      <c r="AG28">
+        <v>0.113204552434183</v>
+      </c>
+      <c r="AI28">
+        <v>64.79019468238207</v>
+      </c>
+      <c r="AJ28">
+        <v>211.1922226020046</v>
+      </c>
+      <c r="AL28">
+        <v>64.23845007451565</v>
+      </c>
+      <c r="AM28">
+        <v>1846.141641728761</v>
+      </c>
+      <c r="AN28">
+        <v>591.7675355089877</v>
+      </c>
+      <c r="AO28">
+        <v>2437.909177237749</v>
+      </c>
+      <c r="AP28">
+        <v>957.0549845160365</v>
+      </c>
+      <c r="AQ28">
+        <v>1505.534956697747</v>
+      </c>
+      <c r="AR28">
+        <v>0.9113771619335089</v>
+      </c>
+      <c r="AS28">
+        <v>211.2620300951466</v>
+      </c>
+      <c r="AT28">
+        <v>0.06980749314204469</v>
+      </c>
+      <c r="AU28">
+        <v>107.9836578039701</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>-8.451232900000001</v>
+      </c>
+      <c r="AY28">
+        <v>8.119092899999998</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:53">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N29">
-        <v>41.035156722976303</v>
+        <v>41.0351567229763</v>
       </c>
       <c r="O29">
         <v>1.5</v>
@@ -2359,51 +5142,150 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S29">
+        <v>295.0706235189798</v>
+      </c>
+      <c r="T29">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U29">
+        <v>552.9586605000004</v>
+      </c>
+      <c r="V29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29">
+        <v>295.0706235189798</v>
+      </c>
+      <c r="X29">
+        <v>277.0706235189798</v>
+      </c>
+      <c r="Y29">
+        <v>18</v>
+      </c>
+      <c r="Z29">
+        <v>18</v>
+      </c>
+      <c r="AA29">
+        <v>438</v>
+      </c>
+      <c r="AB29">
+        <v>5.694037641746907</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0.121034297041905</v>
+      </c>
+      <c r="AF29">
+        <v>0.121034297041905</v>
+      </c>
+      <c r="AG29">
+        <v>0.1136509210867782</v>
+      </c>
+      <c r="AI29">
+        <v>62.78589436419064</v>
+      </c>
+      <c r="AJ29">
+        <v>214.2847291547891</v>
+      </c>
+      <c r="AL29">
+        <v>64.23845007451565</v>
+      </c>
+      <c r="AM29">
+        <v>1846.141641728761</v>
+      </c>
+      <c r="AN29">
+        <v>591.7675355089871</v>
+      </c>
+      <c r="AO29">
+        <v>2437.909177237749</v>
+      </c>
+      <c r="AP29">
+        <v>957.0549845160365</v>
+      </c>
+      <c r="AQ29">
+        <v>1502.98476648468</v>
+      </c>
+      <c r="AR29">
+        <v>3.303864881626695E-15</v>
+      </c>
+      <c r="AS29">
+        <v>214.2847291547891</v>
+      </c>
+      <c r="AT29">
+        <v>4.740791961681876E-16</v>
+      </c>
+      <c r="AU29">
+        <v>104.6431572736511</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>-10.06657744838709</v>
+      </c>
+      <c r="AY29">
+        <v>11.34237974034883</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:53">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N30">
-        <v>41.233282557041903</v>
+        <v>41.2332825570419</v>
       </c>
       <c r="O30">
         <v>1.5</v>
@@ -2415,51 +5297,150 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S30">
+        <v>316.5232526124627</v>
+      </c>
+      <c r="T30">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U30">
+        <v>465.40834</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30">
+        <v>316.5232526124627</v>
+      </c>
+      <c r="X30">
+        <v>298.5232526124627</v>
+      </c>
+      <c r="Y30">
+        <v>18</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+      <c r="AA30">
+        <v>438</v>
+      </c>
+      <c r="AB30">
+        <v>5.694037641746907</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0.1298338984765202</v>
+      </c>
+      <c r="AF30">
+        <v>0.1298338984765202</v>
+      </c>
+      <c r="AG30">
+        <v>0.1224505225213934</v>
+      </c>
+      <c r="AI30">
+        <v>90.35927852074295</v>
+      </c>
+      <c r="AJ30">
+        <v>208.1639740917198</v>
+      </c>
+      <c r="AL30">
+        <v>64.23845007451565</v>
+      </c>
+      <c r="AM30">
+        <v>1846.141641728761</v>
+      </c>
+      <c r="AN30">
+        <v>591.7675355089872</v>
+      </c>
+      <c r="AO30">
+        <v>2437.909177237749</v>
+      </c>
+      <c r="AP30">
+        <v>957.0549845160365</v>
+      </c>
+      <c r="AQ30">
+        <v>1504.47471075972</v>
+      </c>
+      <c r="AR30">
+        <v>0.172710581222054</v>
+      </c>
+      <c r="AS30">
+        <v>208.1793107913323</v>
+      </c>
+      <c r="AT30">
+        <v>0.01533669961251861</v>
+      </c>
+      <c r="AU30">
+        <v>150.5987975345716</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>-16.1279</v>
+      </c>
+      <c r="AY30">
+        <v>13.1725</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:53">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N31">
-        <v>41.431408391107603</v>
+        <v>41.4314083911076</v>
       </c>
       <c r="O31">
         <v>1.5</v>
@@ -2471,51 +5452,150 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S31">
+        <v>374.207622713802</v>
+      </c>
+      <c r="T31">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U31">
+        <v>190.3212389999999</v>
+      </c>
+      <c r="V31" t="s">
+        <v>106</v>
+      </c>
+      <c r="W31">
+        <v>374.207622713802</v>
+      </c>
+      <c r="X31">
+        <v>356.207622713802</v>
+      </c>
+      <c r="Y31">
+        <v>18</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+      <c r="AA31">
+        <v>438</v>
+      </c>
+      <c r="AB31">
+        <v>5.694037641746907</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.1534876234281033</v>
+      </c>
+      <c r="AF31">
+        <v>0.1534876234281033</v>
+      </c>
+      <c r="AG31">
+        <v>0.1461046171663125</v>
+      </c>
+      <c r="AI31">
+        <v>82.93823008986227</v>
+      </c>
+      <c r="AJ31">
+        <v>273.2693926239397</v>
+      </c>
+      <c r="AL31">
+        <v>64.23845007451565</v>
+      </c>
+      <c r="AM31">
+        <v>1846.141641728761</v>
+      </c>
+      <c r="AN31">
+        <v>591.8896102769634</v>
+      </c>
+      <c r="AO31">
+        <v>2438.031252005725</v>
+      </c>
+      <c r="AP31">
+        <v>957.0549845160365</v>
+      </c>
+      <c r="AQ31">
+        <v>1483.533981094884</v>
+      </c>
+      <c r="AR31">
+        <v>2.541434524328227E-15</v>
+      </c>
+      <c r="AS31">
+        <v>273.2693926239397</v>
+      </c>
+      <c r="AT31">
+        <v>1.874816248596933E-16</v>
+      </c>
+      <c r="AU31">
+        <v>138.2303834831038</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:53">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N32">
-        <v>41.629534225173302</v>
+        <v>41.6295342251733</v>
       </c>
       <c r="O32">
         <v>1.5</v>
@@ -2527,51 +5607,150 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S32">
+        <v>292.3772438890457</v>
+      </c>
+      <c r="T32">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U32">
+        <v>483.3774992999997</v>
+      </c>
+      <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32">
+        <v>292.3772438890457</v>
+      </c>
+      <c r="X32">
+        <v>274.3772438890457</v>
+      </c>
+      <c r="Y32">
+        <v>18</v>
+      </c>
+      <c r="Z32">
+        <v>18</v>
+      </c>
+      <c r="AA32">
+        <v>438</v>
+      </c>
+      <c r="AB32">
+        <v>5.652954926302445</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0.1210842333135383</v>
+      </c>
+      <c r="AF32">
+        <v>0.1210842333135383</v>
+      </c>
+      <c r="AG32">
+        <v>0.1136297673959692</v>
+      </c>
+      <c r="AI32">
+        <v>70.62504191768549</v>
+      </c>
+      <c r="AJ32">
+        <v>211.2503914907699</v>
+      </c>
+      <c r="AL32">
+        <v>64.66766020864382</v>
+      </c>
+      <c r="AM32">
+        <v>1859.558432190759</v>
+      </c>
+      <c r="AN32">
+        <v>555.1014775925178</v>
+      </c>
+      <c r="AO32">
+        <v>2414.659909783277</v>
+      </c>
+      <c r="AP32">
+        <v>937.1335924059149</v>
+      </c>
+      <c r="AQ32">
+        <v>1507.837638290347</v>
+      </c>
+      <c r="AR32">
+        <v>2.531904144861996E-14</v>
+      </c>
+      <c r="AS32">
+        <v>211.2503914907699</v>
+      </c>
+      <c r="AT32">
+        <v>2.665818683535162E-15</v>
+      </c>
+      <c r="AU32">
+        <v>117.7084031961425</v>
+      </c>
+      <c r="AV32">
+        <v>44.21941613221964</v>
+      </c>
+      <c r="AW32">
+        <v>7.498189519409732</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:53">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N33">
-        <v>41.827660059239001</v>
+        <v>41.827660059239</v>
       </c>
       <c r="O33">
         <v>1.5</v>
@@ -2583,48 +5762,147 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S33">
+        <v>293.4101031158477</v>
+      </c>
+      <c r="T33">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U33">
+        <v>581.8427324000004</v>
+      </c>
+      <c r="V33" t="s">
+        <v>108</v>
+      </c>
+      <c r="W33">
+        <v>293.4101031158477</v>
+      </c>
+      <c r="X33">
+        <v>275.4101031158477</v>
+      </c>
+      <c r="Y33">
+        <v>18</v>
+      </c>
+      <c r="Z33">
+        <v>18</v>
+      </c>
+      <c r="AA33">
+        <v>438</v>
+      </c>
+      <c r="AB33">
+        <v>5.652954926302445</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0.1215086429176279</v>
+      </c>
+      <c r="AF33">
+        <v>0.1215086429176279</v>
+      </c>
+      <c r="AG33">
+        <v>0.1140543816318339</v>
+      </c>
+      <c r="AI33">
+        <v>72.5300274479158</v>
+      </c>
+      <c r="AJ33">
+        <v>210.9379347370783</v>
+      </c>
+      <c r="AL33">
+        <v>64.66766020864382</v>
+      </c>
+      <c r="AM33">
+        <v>1859.558432190759</v>
+      </c>
+      <c r="AN33">
+        <v>555.167763992287</v>
+      </c>
+      <c r="AO33">
+        <v>2414.726196183046</v>
+      </c>
+      <c r="AP33">
+        <v>937.1335924059149</v>
+      </c>
+      <c r="AQ33">
+        <v>1506.915740240819</v>
+      </c>
+      <c r="AR33">
+        <v>0.3102060447093955</v>
+      </c>
+      <c r="AS33">
+        <v>210.9673629533239</v>
+      </c>
+      <c r="AT33">
+        <v>0.02942821624560456</v>
+      </c>
+      <c r="AU33">
+        <v>120.8833790798597</v>
+      </c>
+      <c r="AV33">
+        <v>47.51998097554251</v>
+      </c>
+      <c r="AW33">
+        <v>8.057859069146357</v>
+      </c>
+      <c r="AX33">
+        <v>-6.181281299999995</v>
+      </c>
+      <c r="AY33">
+        <v>25.23137149999999</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:53">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>42.0257858933047</v>
@@ -2639,48 +5917,147 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S34">
+        <v>302.8605727066587</v>
+      </c>
+      <c r="T34">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U34">
+        <v>557.3206147000001</v>
+      </c>
+      <c r="V34" t="s">
+        <v>109</v>
+      </c>
+      <c r="W34">
+        <v>302.8605727066587</v>
+      </c>
+      <c r="X34">
+        <v>284.8605727066587</v>
+      </c>
+      <c r="Y34">
+        <v>18</v>
+      </c>
+      <c r="Z34">
+        <v>18</v>
+      </c>
+      <c r="AA34">
+        <v>438</v>
+      </c>
+      <c r="AB34">
+        <v>5.652954926302445</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.1254257676120698</v>
+      </c>
+      <c r="AF34">
+        <v>0.1254257676120698</v>
+      </c>
+      <c r="AG34">
+        <v>0.1179713016945007</v>
+      </c>
+      <c r="AI34">
+        <v>75.55147179780931</v>
+      </c>
+      <c r="AJ34">
+        <v>212.6600689566604</v>
+      </c>
+      <c r="AL34">
+        <v>64.66766020864382</v>
+      </c>
+      <c r="AM34">
+        <v>1859.558432190759</v>
+      </c>
+      <c r="AN34">
+        <v>555.1014775925178</v>
+      </c>
+      <c r="AO34">
+        <v>2414.659909783277</v>
+      </c>
+      <c r="AP34">
+        <v>937.1335924059149</v>
+      </c>
+      <c r="AQ34">
+        <v>1503.653680632613</v>
+      </c>
+      <c r="AR34">
+        <v>4.018643341594009E-15</v>
+      </c>
+      <c r="AS34">
+        <v>212.6600689566604</v>
+      </c>
+      <c r="AT34">
+        <v>5.284881325408996E-16</v>
+      </c>
+      <c r="AU34">
+        <v>125.9191196630156</v>
+      </c>
+      <c r="AV34">
+        <v>19.76181719178375</v>
+      </c>
+      <c r="AW34">
+        <v>3.350968047810948</v>
+      </c>
+      <c r="AX34">
+        <v>-9.842710021045065</v>
+      </c>
+      <c r="AY34">
+        <v>11.19299903214856</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:53">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N35">
         <v>42.2239117273704</v>
@@ -2695,51 +6072,150 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S35">
+        <v>306.4508574758297</v>
+      </c>
+      <c r="T35">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U35">
+        <v>487.3737400999998</v>
+      </c>
+      <c r="V35" t="s">
+        <v>110</v>
+      </c>
+      <c r="W35">
+        <v>306.4508574758297</v>
+      </c>
+      <c r="X35">
+        <v>288.4508574758297</v>
+      </c>
+      <c r="Y35">
+        <v>18</v>
+      </c>
+      <c r="Z35">
+        <v>18</v>
+      </c>
+      <c r="AA35">
+        <v>438</v>
+      </c>
+      <c r="AB35">
+        <v>5.652954926302445</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0.1269208112276618</v>
+      </c>
+      <c r="AF35">
+        <v>0.1269208112276618</v>
+      </c>
+      <c r="AG35">
+        <v>0.1194658652016808</v>
+      </c>
+      <c r="AI35">
+        <v>79.03629226043356</v>
+      </c>
+      <c r="AJ35">
+        <v>209.4145652153962</v>
+      </c>
+      <c r="AL35">
+        <v>64.66766020864382</v>
+      </c>
+      <c r="AM35">
+        <v>1859.558432190759</v>
+      </c>
+      <c r="AN35">
+        <v>554.9459702916618</v>
+      </c>
+      <c r="AO35">
+        <v>2414.504402482421</v>
+      </c>
+      <c r="AP35">
+        <v>937.1335924059149</v>
+      </c>
+      <c r="AQ35">
+        <v>1501.35059961179</v>
+      </c>
+      <c r="AR35">
+        <v>0.1093273455980495</v>
+      </c>
+      <c r="AS35">
+        <v>209.4242734836853</v>
+      </c>
+      <c r="AT35">
+        <v>0.009708268289106982</v>
+      </c>
+      <c r="AU35">
+        <v>131.7271537673893</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>-14.5624</v>
+      </c>
+      <c r="AY35">
+        <v>15.0469</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:53">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N36">
-        <v>42.422037561436099</v>
+        <v>42.4220375614361</v>
       </c>
       <c r="O36">
         <v>1.5</v>
@@ -2751,51 +6227,150 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S36">
+        <v>378.4968393207293</v>
+      </c>
+      <c r="T36">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U36">
+        <v>158.5380832999999</v>
+      </c>
+      <c r="V36" t="s">
+        <v>111</v>
+      </c>
+      <c r="W36">
+        <v>378.4968393207293</v>
+      </c>
+      <c r="X36">
+        <v>360.4968393207293</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="Z36">
+        <v>18</v>
+      </c>
+      <c r="AA36">
+        <v>438</v>
+      </c>
+      <c r="AB36">
+        <v>5.652954926302445</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0.1567801372611427</v>
+      </c>
+      <c r="AF36">
+        <v>0.1567801372611427</v>
+      </c>
+      <c r="AG36">
+        <v>0.1493242164250133</v>
+      </c>
+      <c r="AI36">
+        <v>84.22099790756157</v>
+      </c>
+      <c r="AJ36">
+        <v>276.2758414131677</v>
+      </c>
+      <c r="AL36">
+        <v>64.66766020864382</v>
+      </c>
+      <c r="AM36">
+        <v>1859.558432190759</v>
+      </c>
+      <c r="AN36">
+        <v>554.6302905189392</v>
+      </c>
+      <c r="AO36">
+        <v>2414.188722709698</v>
+      </c>
+      <c r="AP36">
+        <v>937.1335924059149</v>
+      </c>
+      <c r="AQ36">
+        <v>1479.083248528755</v>
+      </c>
+      <c r="AR36">
+        <v>5.972371132171334E-15</v>
+      </c>
+      <c r="AS36">
+        <v>276.2758414131677</v>
+      </c>
+      <c r="AT36">
+        <v>5.192913163559867E-16</v>
+      </c>
+      <c r="AU36">
+        <v>140.368329845936</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:53">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N37">
-        <v>42.620163395501699</v>
+        <v>42.6201633955017</v>
       </c>
       <c r="O37">
         <v>1.5</v>
@@ -2807,51 +6382,150 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S37">
+        <v>319.9040320743285</v>
+      </c>
+      <c r="T37">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U37">
+        <v>508.2609216999999</v>
+      </c>
+      <c r="V37" t="s">
+        <v>112</v>
+      </c>
+      <c r="W37">
+        <v>319.9040320743285</v>
+      </c>
+      <c r="X37">
+        <v>301.9040320743285</v>
+      </c>
+      <c r="Y37">
+        <v>18</v>
+      </c>
+      <c r="Z37">
+        <v>18</v>
+      </c>
+      <c r="AA37">
+        <v>438</v>
+      </c>
+      <c r="AB37">
+        <v>5.599863840260933</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0.1298215865062128</v>
+      </c>
+      <c r="AF37">
+        <v>0.1298215865062128</v>
+      </c>
+      <c r="AG37">
+        <v>0.1225169316009289</v>
+      </c>
+      <c r="AI37">
+        <v>72.38742560816725</v>
+      </c>
+      <c r="AJ37">
+        <v>235.2492384388292</v>
+      </c>
+      <c r="AL37">
+        <v>61.52011922503726</v>
+      </c>
+      <c r="AM37">
+        <v>1877.188499552907</v>
+      </c>
+      <c r="AN37">
+        <v>586.9936190273428</v>
+      </c>
+      <c r="AO37">
+        <v>2464.18211858025</v>
+      </c>
+      <c r="AP37">
+        <v>797.9970092644209</v>
+      </c>
+      <c r="AQ37">
+        <v>1694.789660491435</v>
+      </c>
+      <c r="AR37">
+        <v>5.082869048656455E-15</v>
+      </c>
+      <c r="AS37">
+        <v>235.2492384388292</v>
+      </c>
+      <c r="AT37">
+        <v>7.909452526614308E-16</v>
+      </c>
+      <c r="AU37">
+        <v>120.6457093469454</v>
+      </c>
+      <c r="AV37">
+        <v>33.80731282879431</v>
+      </c>
+      <c r="AW37">
+        <v>5.73263197266796</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:53">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N38">
-        <v>42.818289229567398</v>
+        <v>42.8182892295674</v>
       </c>
       <c r="O38">
         <v>1.5</v>
@@ -2863,51 +6537,150 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S38">
+        <v>318.3095223059931</v>
+      </c>
+      <c r="T38">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U38">
+        <v>516.8168248000002</v>
+      </c>
+      <c r="V38" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38">
+        <v>318.3095223059931</v>
+      </c>
+      <c r="X38">
+        <v>300.3095223059931</v>
+      </c>
+      <c r="Y38">
+        <v>18</v>
+      </c>
+      <c r="Z38">
+        <v>18</v>
+      </c>
+      <c r="AA38">
+        <v>438</v>
+      </c>
+      <c r="AB38">
+        <v>5.599863840260933</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0.1291745118617242</v>
+      </c>
+      <c r="AF38">
+        <v>0.1291745118617242</v>
+      </c>
+      <c r="AG38">
+        <v>0.1218698569564403</v>
+      </c>
+      <c r="AI38">
+        <v>71.14854924488193</v>
+      </c>
+      <c r="AJ38">
+        <v>236.5039356752727</v>
+      </c>
+      <c r="AL38">
+        <v>61.52011922503726</v>
+      </c>
+      <c r="AM38">
+        <v>1877.188499552907</v>
+      </c>
+      <c r="AN38">
+        <v>586.9936190273426</v>
+      </c>
+      <c r="AO38">
+        <v>2464.18211858025</v>
+      </c>
+      <c r="AP38">
+        <v>797.9970092644209</v>
+      </c>
+      <c r="AQ38">
+        <v>1695.807470472573</v>
+      </c>
+      <c r="AR38">
+        <v>0.2721600333458319</v>
+      </c>
+      <c r="AS38">
+        <v>236.5281034862338</v>
+      </c>
+      <c r="AT38">
+        <v>0.0241678109611102</v>
+      </c>
+      <c r="AU38">
+        <v>118.5809154081366</v>
+      </c>
+      <c r="AV38">
+        <v>43.30398940149764</v>
+      </c>
+      <c r="AW38">
+        <v>7.342962614161523</v>
+      </c>
+      <c r="AX38">
+        <v>-6.601598099999997</v>
+      </c>
+      <c r="AY38">
+        <v>9.212854499999992</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:53">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N39">
-        <v>43.016415063633097</v>
+        <v>43.0164150636331</v>
       </c>
       <c r="O39">
         <v>1.5</v>
@@ -2919,51 +6692,150 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S39">
+        <v>328.0301516673971</v>
+      </c>
+      <c r="T39">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U39">
+        <v>502.2170102999999</v>
+      </c>
+      <c r="V39" t="s">
+        <v>114</v>
+      </c>
+      <c r="W39">
+        <v>328.0301516673971</v>
+      </c>
+      <c r="X39">
+        <v>310.0301516673971</v>
+      </c>
+      <c r="Y39">
+        <v>18</v>
+      </c>
+      <c r="Z39">
+        <v>18</v>
+      </c>
+      <c r="AA39">
+        <v>438</v>
+      </c>
+      <c r="AB39">
+        <v>5.599863840260933</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0.1331192809143479</v>
+      </c>
+      <c r="AF39">
+        <v>0.1331192809143479</v>
+      </c>
+      <c r="AG39">
+        <v>0.125814626009064</v>
+      </c>
+      <c r="AI39">
+        <v>75.20535306991832</v>
+      </c>
+      <c r="AJ39">
+        <v>234.8247985974788</v>
+      </c>
+      <c r="AL39">
+        <v>61.52011922503726</v>
+      </c>
+      <c r="AM39">
+        <v>1877.188499552907</v>
+      </c>
+      <c r="AN39">
+        <v>586.9936190273422</v>
+      </c>
+      <c r="AO39">
+        <v>2464.182118580249</v>
+      </c>
+      <c r="AP39">
+        <v>797.9970092644209</v>
+      </c>
+      <c r="AQ39">
+        <v>1690.27580103491</v>
+      </c>
+      <c r="AR39">
+        <v>0.1867016783873363</v>
+      </c>
+      <c r="AS39">
+        <v>234.8413777065196</v>
+      </c>
+      <c r="AT39">
+        <v>0.01657910904079581</v>
+      </c>
+      <c r="AU39">
+        <v>125.3422551165305</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>-9.612032777092594</v>
+      </c>
+      <c r="AY39">
+        <v>11.8668929871788</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:53">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N40">
-        <v>43.214540897698797</v>
+        <v>43.2145408976988</v>
       </c>
       <c r="O40">
         <v>1.5</v>
@@ -2975,51 +6847,150 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S40">
+        <v>343.7642611248895</v>
+      </c>
+      <c r="T40">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U40">
+        <v>486.7990649000003</v>
+      </c>
+      <c r="V40" t="s">
+        <v>115</v>
+      </c>
+      <c r="W40">
+        <v>343.7642611248895</v>
+      </c>
+      <c r="X40">
+        <v>325.7642611248895</v>
+      </c>
+      <c r="Y40">
+        <v>18</v>
+      </c>
+      <c r="Z40">
+        <v>18</v>
+      </c>
+      <c r="AA40">
+        <v>438</v>
+      </c>
+      <c r="AB40">
+        <v>5.599863840260933</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0.1395044053492893</v>
+      </c>
+      <c r="AF40">
+        <v>0.1395044053492893</v>
+      </c>
+      <c r="AG40">
+        <v>0.1321997504440054</v>
+      </c>
+      <c r="AI40">
+        <v>93.5835682797799</v>
+      </c>
+      <c r="AJ40">
+        <v>232.1806928451096</v>
+      </c>
+      <c r="AL40">
+        <v>61.52011922503726</v>
+      </c>
+      <c r="AM40">
+        <v>1877.188499552907</v>
+      </c>
+      <c r="AN40">
+        <v>586.9936190273426</v>
+      </c>
+      <c r="AO40">
+        <v>2464.18211858025</v>
+      </c>
+      <c r="AP40">
+        <v>797.9970092644209</v>
+      </c>
+      <c r="AQ40">
+        <v>1690.547359368233</v>
+      </c>
+      <c r="AR40">
+        <v>0.2264647165052972</v>
+      </c>
+      <c r="AS40">
+        <v>232.2008029119353</v>
+      </c>
+      <c r="AT40">
+        <v>0.02011006682567092</v>
+      </c>
+      <c r="AU40">
+        <v>155.9726137996332</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>-14.41800000000001</v>
+      </c>
+      <c r="AY40">
+        <v>15.8714</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:53">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N41">
-        <v>43.412666731764503</v>
+        <v>43.4126667317645</v>
       </c>
       <c r="O41">
         <v>1.5</v>
@@ -3031,51 +7002,150 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S41">
+        <v>413.9715559707244</v>
+      </c>
+      <c r="T41">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U41">
+        <v>175.4813463</v>
+      </c>
+      <c r="V41" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41">
+        <v>413.9715559707244</v>
+      </c>
+      <c r="X41">
+        <v>395.9715559707244</v>
+      </c>
+      <c r="Y41">
+        <v>18</v>
+      </c>
+      <c r="Z41">
+        <v>18</v>
+      </c>
+      <c r="AA41">
+        <v>438</v>
+      </c>
+      <c r="AB41">
+        <v>5.599863840260933</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0.1679955198316414</v>
+      </c>
+      <c r="AF41">
+        <v>0.1679955198316414</v>
+      </c>
+      <c r="AG41">
+        <v>0.1606908649263575</v>
+      </c>
+      <c r="AI41">
+        <v>91.8470970650766</v>
+      </c>
+      <c r="AJ41">
+        <v>304.1244589056478</v>
+      </c>
+      <c r="AL41">
+        <v>61.52011922503726</v>
+      </c>
+      <c r="AM41">
+        <v>1877.188499552907</v>
+      </c>
+      <c r="AN41">
+        <v>586.9936190273423</v>
+      </c>
+      <c r="AO41">
+        <v>2464.182118580249</v>
+      </c>
+      <c r="AP41">
+        <v>797.9970092644209</v>
+      </c>
+      <c r="AQ41">
+        <v>1666.977749510554</v>
+      </c>
+      <c r="AR41">
+        <v>2.033147619462582E-15</v>
+      </c>
+      <c r="AS41">
+        <v>304.1244589056478</v>
+      </c>
+      <c r="AT41">
+        <v>1.758545619108916E-16</v>
+      </c>
+      <c r="AU41">
+        <v>153.078495108461</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:53">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N42">
-        <v>43.610792565830202</v>
+        <v>43.6107925658302</v>
       </c>
       <c r="O42">
         <v>1.5</v>
@@ -3087,51 +7157,150 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S42">
+        <v>305.8207743511269</v>
+      </c>
+      <c r="T42">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U42">
+        <v>364.3957595000011</v>
+      </c>
+      <c r="V42" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42">
+        <v>305.8207743511269</v>
+      </c>
+      <c r="X42">
+        <v>287.8207743511269</v>
+      </c>
+      <c r="Y42">
+        <v>18</v>
+      </c>
+      <c r="Z42">
+        <v>18</v>
+      </c>
+      <c r="AA42">
+        <v>438</v>
+      </c>
+      <c r="AB42">
+        <v>5.723655223312245</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0.1259155182589121</v>
+      </c>
+      <c r="AF42">
+        <v>0.1259155182589121</v>
+      </c>
+      <c r="AG42">
+        <v>0.1185043823298069</v>
+      </c>
+      <c r="AI42">
+        <v>68.94218494636607</v>
+      </c>
+      <c r="AJ42">
+        <v>230.793373699027</v>
+      </c>
+      <c r="AL42">
+        <v>63.09388971684054</v>
+      </c>
+      <c r="AM42">
+        <v>1836.588611624438</v>
+      </c>
+      <c r="AN42">
+        <v>592.1888621916723</v>
+      </c>
+      <c r="AO42">
+        <v>2428.777473816111</v>
+      </c>
+      <c r="AP42">
+        <v>834.1162912737259</v>
+      </c>
+      <c r="AQ42">
+        <v>1628.134789197356</v>
+      </c>
+      <c r="AR42">
+        <v>8.672645314270075E-15</v>
+      </c>
+      <c r="AS42">
+        <v>230.793373699027</v>
+      </c>
+      <c r="AT42">
+        <v>1.067154710351733E-15</v>
+      </c>
+      <c r="AU42">
+        <v>115.6975289090545</v>
+      </c>
+      <c r="AV42">
+        <v>70.26560257912313</v>
+      </c>
+      <c r="AW42">
+        <v>11.91478429426617</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:53">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N43">
-        <v>43.808918399895802</v>
+        <v>43.8089183998958</v>
       </c>
       <c r="O43">
         <v>1.5</v>
@@ -3143,51 +7312,150 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S43">
+        <v>308.9233693264696</v>
+      </c>
+      <c r="T43">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U43">
+        <v>476.8741832000005</v>
+      </c>
+      <c r="V43" t="s">
+        <v>118</v>
+      </c>
+      <c r="W43">
+        <v>308.9233693264696</v>
+      </c>
+      <c r="X43">
+        <v>290.9233693264696</v>
+      </c>
+      <c r="Y43">
+        <v>18</v>
+      </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
+      <c r="AA43">
+        <v>438</v>
+      </c>
+      <c r="AB43">
+        <v>5.723655223312245</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0.1271929489864246</v>
+      </c>
+      <c r="AF43">
+        <v>0.1271929489864246</v>
+      </c>
+      <c r="AG43">
+        <v>0.1197818130573193</v>
+      </c>
+      <c r="AI43">
+        <v>68.96803388606368</v>
+      </c>
+      <c r="AJ43">
+        <v>230.9957655312741</v>
+      </c>
+      <c r="AL43">
+        <v>63.09388971684054</v>
+      </c>
+      <c r="AM43">
+        <v>1836.588611624438</v>
+      </c>
+      <c r="AN43">
+        <v>592.1888621916726</v>
+      </c>
+      <c r="AO43">
+        <v>2428.777473816111</v>
+      </c>
+      <c r="AP43">
+        <v>834.1162912737259</v>
+      </c>
+      <c r="AQ43">
+        <v>1625.047038186217</v>
+      </c>
+      <c r="AR43">
+        <v>0.5463999324536895</v>
+      </c>
+      <c r="AS43">
+        <v>231.0403178859283</v>
+      </c>
+      <c r="AT43">
+        <v>0.04455235465429878</v>
+      </c>
+      <c r="AU43">
+        <v>116.3144739815478</v>
+      </c>
+      <c r="AV43">
+        <v>53.31454201944551</v>
+      </c>
+      <c r="AW43">
+        <v>9.040430090868087</v>
+      </c>
+      <c r="AX43">
+        <v>-62.6875752</v>
+      </c>
+      <c r="AY43">
+        <v>8.97675000000001</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:53">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N44">
-        <v>44.007044233961501</v>
+        <v>44.0070442339615</v>
       </c>
       <c r="O44">
         <v>1.5</v>
@@ -3199,51 +7467,150 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S44">
+        <v>307.8072056668343</v>
+      </c>
+      <c r="T44">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U44">
+        <v>474.2948693999988</v>
+      </c>
+      <c r="V44" t="s">
+        <v>119</v>
+      </c>
+      <c r="W44">
+        <v>307.8072056668343</v>
+      </c>
+      <c r="X44">
+        <v>289.8072056668343</v>
+      </c>
+      <c r="Y44">
+        <v>18</v>
+      </c>
+      <c r="Z44">
+        <v>18</v>
+      </c>
+      <c r="AA44">
+        <v>438</v>
+      </c>
+      <c r="AB44">
+        <v>5.723655223312245</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0.1267333911752754</v>
+      </c>
+      <c r="AF44">
+        <v>0.1267333911752754</v>
+      </c>
+      <c r="AG44">
+        <v>0.1193222552461702</v>
+      </c>
+      <c r="AI44">
+        <v>70.71317514336216</v>
+      </c>
+      <c r="AJ44">
+        <v>230.6818850944136</v>
+      </c>
+      <c r="AL44">
+        <v>63.09388971684054</v>
+      </c>
+      <c r="AM44">
+        <v>1836.588611624438</v>
+      </c>
+      <c r="AN44">
+        <v>592.188862191672</v>
+      </c>
+      <c r="AO44">
+        <v>2428.77747381611</v>
+      </c>
+      <c r="AP44">
+        <v>834.1162912737259</v>
+      </c>
+      <c r="AQ44">
+        <v>1628.491562583897</v>
+      </c>
+      <c r="AR44">
+        <v>0.3619136980721687</v>
+      </c>
+      <c r="AS44">
+        <v>230.709803153804</v>
+      </c>
+      <c r="AT44">
+        <v>0.02791805939033293</v>
+      </c>
+      <c r="AU44">
+        <v>118.0126544340672</v>
+      </c>
+      <c r="AV44">
+        <v>68.33758496310215</v>
+      </c>
+      <c r="AW44">
+        <v>11.58785457094148</v>
+      </c>
+      <c r="AX44">
+        <v>-61.13808536617337</v>
+      </c>
+      <c r="AY44">
+        <v>52.16011448297026</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:53">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N45">
-        <v>44.205170068027201</v>
+        <v>44.2051700680272</v>
       </c>
       <c r="O45">
         <v>1.5</v>
@@ -3255,48 +7622,147 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="S45">
+        <v>326.5539518812906</v>
+      </c>
+      <c r="T45">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U45">
+        <v>389.1311093000004</v>
+      </c>
+      <c r="V45" t="s">
+        <v>120</v>
+      </c>
+      <c r="W45">
+        <v>326.5539518812906</v>
+      </c>
+      <c r="X45">
+        <v>308.5539518812906</v>
+      </c>
+      <c r="Y45">
+        <v>18</v>
+      </c>
+      <c r="Z45">
+        <v>18</v>
+      </c>
+      <c r="AA45">
+        <v>438</v>
+      </c>
+      <c r="AB45">
+        <v>5.723655223312245</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0.134451984754374</v>
+      </c>
+      <c r="AF45">
+        <v>0.134451984754374</v>
+      </c>
+      <c r="AG45">
+        <v>0.1270408488252688</v>
+      </c>
+      <c r="AI45">
+        <v>80.89402480617703</v>
+      </c>
+      <c r="AJ45">
+        <v>227.6599270751136</v>
+      </c>
+      <c r="AL45">
+        <v>63.09388971684054</v>
+      </c>
+      <c r="AM45">
+        <v>1836.588611624438</v>
+      </c>
+      <c r="AN45">
+        <v>592.1888621916719</v>
+      </c>
+      <c r="AO45">
+        <v>2428.77747381611</v>
+      </c>
+      <c r="AP45">
+        <v>834.1162912737259</v>
+      </c>
+      <c r="AQ45">
+        <v>1617.525887668134</v>
+      </c>
+      <c r="AR45">
+        <v>0.5376790893525412</v>
+      </c>
+      <c r="AS45">
+        <v>227.7027303781455</v>
+      </c>
+      <c r="AT45">
+        <v>0.04280330303191271</v>
+      </c>
+      <c r="AU45">
+        <v>145.3739862065659</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>-61.0537</v>
+      </c>
+      <c r="AY45">
+        <v>57.7833</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:53">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N46">
         <v>44.4032959020929</v>
@@ -3311,7 +7777,106 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="S46">
+        <v>396.9150963219741</v>
+      </c>
+      <c r="T46">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="U46">
+        <v>181.7328441000009</v>
+      </c>
+      <c r="V46" t="s">
+        <v>121</v>
+      </c>
+      <c r="W46">
+        <v>396.9150963219741</v>
+      </c>
+      <c r="X46">
+        <v>378.9150963219741</v>
+      </c>
+      <c r="Y46">
+        <v>18</v>
+      </c>
+      <c r="Z46">
+        <v>18</v>
+      </c>
+      <c r="AA46">
+        <v>438</v>
+      </c>
+      <c r="AB46">
+        <v>5.723655223312245</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0.1634422573214234</v>
+      </c>
+      <c r="AF46">
+        <v>0.1634422573214234</v>
+      </c>
+      <c r="AG46">
+        <v>0.1560301919728202</v>
+      </c>
+      <c r="AI46">
+        <v>82.12561239101537</v>
+      </c>
+      <c r="AJ46">
+        <v>296.7894839309587</v>
+      </c>
+      <c r="AL46">
+        <v>63.09388971684054</v>
+      </c>
+      <c r="AM46">
+        <v>1836.588611624438</v>
+      </c>
+      <c r="AN46">
+        <v>591.8843110261955</v>
+      </c>
+      <c r="AO46">
+        <v>2428.472922650634</v>
+      </c>
+      <c r="AP46">
+        <v>834.1162912737259</v>
+      </c>
+      <c r="AQ46">
+        <v>1596.346345593533</v>
+      </c>
+      <c r="AR46">
+        <v>3.542124368282467E-15</v>
+      </c>
+      <c r="AS46">
+        <v>296.7894839309587</v>
+      </c>
+      <c r="AT46">
+        <v>2.689091870191697E-16</v>
+      </c>
+      <c r="AU46">
+        <v>147.6806822354057</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
